--- a/spreadsheets/new/GSE36552.0.xlsx
+++ b/spreadsheets/new/GSE36552.0.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geryl/PycharmProjects/load-project/spreadsheets/new/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD92D2D1-3912-6249-92DB-A2E14F8DC861}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="25420" windowHeight="15000" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cell_suspension" sheetId="1" r:id="rId1"/>
@@ -17,12 +23,12 @@
     <sheet name="Sequencing_protocol" sheetId="8" r:id="rId8"/>
     <sheet name="Specimen_from_organism" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3843" uniqueCount="1743">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3845" uniqueCount="1744">
   <si>
     <t>CELL_SUSPENSION.BIOMATERIAL_CORE.BIOMATERIAL_ID.USER_FRIENDLY (Required)</t>
   </si>
@@ -5251,13 +5257,16 @@
   </si>
   <si>
     <t>hESC passage#10</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5294,6 +5303,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -5340,7 +5357,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5372,9 +5389,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5406,6 +5441,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5581,75 +5634,71 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="73.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="71.7109375" customWidth="1"/>
-    <col min="4" max="4" width="47.7109375" customWidth="1"/>
-    <col min="5" max="5" width="61.7109375" customWidth="1"/>
-    <col min="6" max="6" width="197.7109375" customWidth="1"/>
-    <col min="7" max="7" width="176.7109375" customWidth="1"/>
-    <col min="8" max="8" width="171.7109375" customWidth="1"/>
-    <col min="9" max="9" width="134.7109375" customWidth="1"/>
-    <col min="10" max="10" width="57.7109375" customWidth="1"/>
-    <col min="11" max="11" width="85.7109375" customWidth="1"/>
-    <col min="12" max="12" width="69.7109375" customWidth="1"/>
-    <col min="13" max="13" width="58.7109375" customWidth="1"/>
-    <col min="14" max="14" width="141.7109375" customWidth="1"/>
-    <col min="15" max="15" width="70.7109375" customWidth="1"/>
-    <col min="16" max="16" width="57.7109375" customWidth="1"/>
-    <col min="17" max="17" width="54.7109375" customWidth="1"/>
-    <col min="18" max="18" width="68.7109375" customWidth="1"/>
-    <col min="19" max="19" width="62.7109375" customWidth="1"/>
-    <col min="20" max="20" width="81.7109375" customWidth="1"/>
-    <col min="21" max="21" width="61.7109375" customWidth="1"/>
-    <col min="22" max="22" width="195.7109375" customWidth="1"/>
-    <col min="23" max="23" width="62.7109375" customWidth="1"/>
-    <col min="24" max="24" width="150.7109375" customWidth="1"/>
-    <col min="25" max="25" width="78.7109375" customWidth="1"/>
-    <col min="26" max="26" width="64.7109375" customWidth="1"/>
-    <col min="27" max="27" width="58.7109375" customWidth="1"/>
-    <col min="28" max="28" width="141.7109375" customWidth="1"/>
-    <col min="29" max="29" width="163.7109375" customWidth="1"/>
-    <col min="30" max="30" width="58.7109375" customWidth="1"/>
-    <col min="31" max="31" width="141.7109375" customWidth="1"/>
-    <col min="32" max="32" width="52.7109375" customWidth="1"/>
-    <col min="33" max="33" width="63.7109375" customWidth="1"/>
-    <col min="34" max="34" width="59.7109375" customWidth="1"/>
-    <col min="35" max="35" width="108.7109375" customWidth="1"/>
-    <col min="36" max="36" width="108.7109375" customWidth="1"/>
-    <col min="37" max="37" width="69.7109375" customWidth="1"/>
-    <col min="38" max="38" width="58.7109375" customWidth="1"/>
-    <col min="39" max="39" width="141.7109375" customWidth="1"/>
-    <col min="40" max="40" width="117.7109375" customWidth="1"/>
-    <col min="41" max="41" width="80.7109375" customWidth="1"/>
-    <col min="42" max="42" width="73.7109375" customWidth="1"/>
-    <col min="43" max="43" width="71.7109375" customWidth="1"/>
-    <col min="44" max="44" width="32.7109375" customWidth="1"/>
-    <col min="45" max="45" width="67.7109375" customWidth="1"/>
-    <col min="46" max="46" width="41.7109375" customWidth="1"/>
-    <col min="47" max="47" width="84.7109375" customWidth="1"/>
-    <col min="48" max="48" width="104.7109375" customWidth="1"/>
-    <col min="49" max="49" width="104.7109375" customWidth="1"/>
-    <col min="50" max="50" width="104.7109375" customWidth="1"/>
-    <col min="51" max="51" width="88.7109375" customWidth="1"/>
-    <col min="52" max="52" width="69.7109375" customWidth="1"/>
-    <col min="53" max="53" width="58.7109375" customWidth="1"/>
-    <col min="54" max="54" width="141.7109375" customWidth="1"/>
-    <col min="55" max="55" width="67.7109375" customWidth="1"/>
-    <col min="56" max="56" width="58.7109375" customWidth="1"/>
-    <col min="57" max="57" width="141.7109375" customWidth="1"/>
-    <col min="58" max="58" width="79.7109375" customWidth="1"/>
-    <col min="59" max="59" width="175.7109375" customWidth="1"/>
+    <col min="1" max="1" width="73.6640625" customWidth="1"/>
+    <col min="2" max="3" width="71.6640625" customWidth="1"/>
+    <col min="4" max="4" width="47.6640625" customWidth="1"/>
+    <col min="5" max="5" width="61.6640625" customWidth="1"/>
+    <col min="6" max="6" width="197.6640625" customWidth="1"/>
+    <col min="7" max="7" width="176.6640625" customWidth="1"/>
+    <col min="8" max="8" width="171.6640625" customWidth="1"/>
+    <col min="9" max="9" width="134.6640625" customWidth="1"/>
+    <col min="10" max="10" width="57.6640625" customWidth="1"/>
+    <col min="11" max="11" width="85.6640625" customWidth="1"/>
+    <col min="12" max="12" width="69.6640625" customWidth="1"/>
+    <col min="13" max="13" width="58.6640625" customWidth="1"/>
+    <col min="14" max="14" width="141.6640625" customWidth="1"/>
+    <col min="15" max="15" width="70.6640625" customWidth="1"/>
+    <col min="16" max="16" width="57.6640625" customWidth="1"/>
+    <col min="17" max="17" width="54.6640625" customWidth="1"/>
+    <col min="18" max="18" width="68.6640625" customWidth="1"/>
+    <col min="19" max="19" width="62.6640625" customWidth="1"/>
+    <col min="20" max="20" width="81.6640625" customWidth="1"/>
+    <col min="21" max="21" width="61.6640625" customWidth="1"/>
+    <col min="22" max="22" width="195.6640625" customWidth="1"/>
+    <col min="23" max="23" width="62.6640625" customWidth="1"/>
+    <col min="24" max="24" width="150.6640625" customWidth="1"/>
+    <col min="25" max="25" width="78.6640625" customWidth="1"/>
+    <col min="26" max="26" width="64.6640625" customWidth="1"/>
+    <col min="27" max="27" width="58.6640625" customWidth="1"/>
+    <col min="28" max="28" width="141.6640625" customWidth="1"/>
+    <col min="29" max="29" width="163.6640625" customWidth="1"/>
+    <col min="30" max="30" width="58.6640625" customWidth="1"/>
+    <col min="31" max="31" width="141.6640625" customWidth="1"/>
+    <col min="32" max="32" width="52.6640625" customWidth="1"/>
+    <col min="33" max="33" width="63.6640625" customWidth="1"/>
+    <col min="34" max="34" width="59.6640625" customWidth="1"/>
+    <col min="35" max="36" width="108.6640625" customWidth="1"/>
+    <col min="37" max="37" width="69.6640625" customWidth="1"/>
+    <col min="38" max="38" width="58.6640625" customWidth="1"/>
+    <col min="39" max="39" width="141.6640625" customWidth="1"/>
+    <col min="40" max="40" width="117.6640625" customWidth="1"/>
+    <col min="41" max="41" width="80.6640625" customWidth="1"/>
+    <col min="42" max="42" width="73.6640625" customWidth="1"/>
+    <col min="43" max="43" width="71.6640625" customWidth="1"/>
+    <col min="44" max="44" width="32.6640625" customWidth="1"/>
+    <col min="45" max="45" width="67.6640625" customWidth="1"/>
+    <col min="46" max="46" width="41.6640625" customWidth="1"/>
+    <col min="47" max="47" width="84.6640625" customWidth="1"/>
+    <col min="48" max="50" width="104.6640625" customWidth="1"/>
+    <col min="51" max="51" width="88.6640625" customWidth="1"/>
+    <col min="52" max="52" width="69.6640625" customWidth="1"/>
+    <col min="53" max="53" width="58.6640625" customWidth="1"/>
+    <col min="54" max="54" width="141.6640625" customWidth="1"/>
+    <col min="55" max="55" width="67.6640625" customWidth="1"/>
+    <col min="56" max="56" width="58.6640625" customWidth="1"/>
+    <col min="57" max="57" width="141.6640625" customWidth="1"/>
+    <col min="58" max="58" width="79.6640625" customWidth="1"/>
+    <col min="59" max="59" width="175.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5828,7 +5877,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:59">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -6007,7 +6056,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:59">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>105</v>
       </c>
@@ -6165,7 +6214,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:59">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>148</v>
       </c>
@@ -6344,12 +6393,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:59">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:59">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>208</v>
       </c>
@@ -6372,7 +6421,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="7" spans="1:59">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>214</v>
       </c>
@@ -6395,7 +6444,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="8" spans="1:59">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>218</v>
       </c>
@@ -6418,7 +6467,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="9" spans="1:59">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>222</v>
       </c>
@@ -6441,7 +6490,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="10" spans="1:59">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>227</v>
       </c>
@@ -6464,7 +6513,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="11" spans="1:59">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>231</v>
       </c>
@@ -6487,7 +6536,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="12" spans="1:59">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>235</v>
       </c>
@@ -6510,7 +6559,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="13" spans="1:59">
+    <row r="13" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>240</v>
       </c>
@@ -6533,7 +6582,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="14" spans="1:59">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>244</v>
       </c>
@@ -6556,7 +6605,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="15" spans="1:59">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>248</v>
       </c>
@@ -6579,7 +6628,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="16" spans="1:59">
+    <row r="16" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>252</v>
       </c>
@@ -6602,7 +6651,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="17" spans="1:41">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>256</v>
       </c>
@@ -6625,7 +6674,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="18" spans="1:41">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>260</v>
       </c>
@@ -6648,7 +6697,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="19" spans="1:41">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>265</v>
       </c>
@@ -6671,7 +6720,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="20" spans="1:41">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>269</v>
       </c>
@@ -6697,7 +6746,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="21" spans="1:41">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>275</v>
       </c>
@@ -6723,7 +6772,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="22" spans="1:41">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>280</v>
       </c>
@@ -6749,7 +6798,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="23" spans="1:41">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>285</v>
       </c>
@@ -6775,7 +6824,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="24" spans="1:41">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>290</v>
       </c>
@@ -6801,7 +6850,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="25" spans="1:41">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>295</v>
       </c>
@@ -6827,7 +6876,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="26" spans="1:41">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>300</v>
       </c>
@@ -6853,7 +6902,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="27" spans="1:41">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>305</v>
       </c>
@@ -6879,7 +6928,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="28" spans="1:41">
+    <row r="28" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>310</v>
       </c>
@@ -6905,7 +6954,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="29" spans="1:41">
+    <row r="29" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>315</v>
       </c>
@@ -6931,7 +6980,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="30" spans="1:41">
+    <row r="30" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>320</v>
       </c>
@@ -6957,7 +7006,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="31" spans="1:41">
+    <row r="31" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>325</v>
       </c>
@@ -6983,7 +7032,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="32" spans="1:41">
+    <row r="32" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>330</v>
       </c>
@@ -7009,7 +7058,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="33" spans="1:41">
+    <row r="33" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>335</v>
       </c>
@@ -7035,7 +7084,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="34" spans="1:41">
+    <row r="34" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>340</v>
       </c>
@@ -7061,7 +7110,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="35" spans="1:41">
+    <row r="35" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>345</v>
       </c>
@@ -7087,7 +7136,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="36" spans="1:41">
+    <row r="36" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>350</v>
       </c>
@@ -7113,7 +7162,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="37" spans="1:41">
+    <row r="37" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>355</v>
       </c>
@@ -7139,7 +7188,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="38" spans="1:41">
+    <row r="38" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>360</v>
       </c>
@@ -7165,7 +7214,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="39" spans="1:41">
+    <row r="39" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>365</v>
       </c>
@@ -7191,7 +7240,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="40" spans="1:41">
+    <row r="40" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>370</v>
       </c>
@@ -7217,7 +7266,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="41" spans="1:41">
+    <row r="41" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>375</v>
       </c>
@@ -7243,7 +7292,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="42" spans="1:41">
+    <row r="42" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>380</v>
       </c>
@@ -7269,7 +7318,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="43" spans="1:41">
+    <row r="43" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>385</v>
       </c>
@@ -7295,7 +7344,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="44" spans="1:41">
+    <row r="44" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>390</v>
       </c>
@@ -7321,7 +7370,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="45" spans="1:41">
+    <row r="45" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>395</v>
       </c>
@@ -7347,7 +7396,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="46" spans="1:41">
+    <row r="46" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>400</v>
       </c>
@@ -7373,7 +7422,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="47" spans="1:41">
+    <row r="47" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>405</v>
       </c>
@@ -7399,7 +7448,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="48" spans="1:41">
+    <row r="48" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>410</v>
       </c>
@@ -7425,7 +7474,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="49" spans="1:41">
+    <row r="49" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>415</v>
       </c>
@@ -7451,7 +7500,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="50" spans="1:41">
+    <row r="50" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>420</v>
       </c>
@@ -7477,7 +7526,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="51" spans="1:41">
+    <row r="51" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>425</v>
       </c>
@@ -7503,7 +7552,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="52" spans="1:41">
+    <row r="52" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>430</v>
       </c>
@@ -7529,7 +7578,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="53" spans="1:41">
+    <row r="53" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>435</v>
       </c>
@@ -7555,7 +7604,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="54" spans="1:41">
+    <row r="54" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>440</v>
       </c>
@@ -7581,7 +7630,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="55" spans="1:41">
+    <row r="55" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>445</v>
       </c>
@@ -7607,7 +7656,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="56" spans="1:41">
+    <row r="56" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>450</v>
       </c>
@@ -7633,7 +7682,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="57" spans="1:41">
+    <row r="57" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>455</v>
       </c>
@@ -7659,7 +7708,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="58" spans="1:41">
+    <row r="58" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>460</v>
       </c>
@@ -7685,7 +7734,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="59" spans="1:41">
+    <row r="59" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>465</v>
       </c>
@@ -7711,7 +7760,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="60" spans="1:41">
+    <row r="60" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>470</v>
       </c>
@@ -7737,7 +7786,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="61" spans="1:41">
+    <row r="61" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>475</v>
       </c>
@@ -7763,7 +7812,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="62" spans="1:41">
+    <row r="62" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>480</v>
       </c>
@@ -7789,7 +7838,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="63" spans="1:41">
+    <row r="63" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>485</v>
       </c>
@@ -7815,7 +7864,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="64" spans="1:41">
+    <row r="64" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>490</v>
       </c>
@@ -7841,7 +7890,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="65" spans="1:41">
+    <row r="65" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>495</v>
       </c>
@@ -7867,7 +7916,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="66" spans="1:41">
+    <row r="66" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>500</v>
       </c>
@@ -7893,7 +7942,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="67" spans="1:41">
+    <row r="67" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>505</v>
       </c>
@@ -7919,7 +7968,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="68" spans="1:41">
+    <row r="68" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>510</v>
       </c>
@@ -7945,7 +7994,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="69" spans="1:41">
+    <row r="69" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>515</v>
       </c>
@@ -7971,7 +8020,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="70" spans="1:41">
+    <row r="70" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>520</v>
       </c>
@@ -7997,7 +8046,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="71" spans="1:41">
+    <row r="71" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>525</v>
       </c>
@@ -8023,7 +8072,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="72" spans="1:41">
+    <row r="72" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>530</v>
       </c>
@@ -8049,7 +8098,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="73" spans="1:41">
+    <row r="73" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>535</v>
       </c>
@@ -8075,7 +8124,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="74" spans="1:41">
+    <row r="74" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>540</v>
       </c>
@@ -8101,7 +8150,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="75" spans="1:41">
+    <row r="75" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>545</v>
       </c>
@@ -8127,7 +8176,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="76" spans="1:41">
+    <row r="76" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>550</v>
       </c>
@@ -8153,7 +8202,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="77" spans="1:41">
+    <row r="77" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>555</v>
       </c>
@@ -8179,7 +8228,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="78" spans="1:41">
+    <row r="78" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>560</v>
       </c>
@@ -8205,7 +8254,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="79" spans="1:41">
+    <row r="79" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>565</v>
       </c>
@@ -8231,7 +8280,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="80" spans="1:41">
+    <row r="80" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>570</v>
       </c>
@@ -8257,7 +8306,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="81" spans="1:41">
+    <row r="81" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>575</v>
       </c>
@@ -8283,7 +8332,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="82" spans="1:41">
+    <row r="82" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>580</v>
       </c>
@@ -8309,7 +8358,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="83" spans="1:41">
+    <row r="83" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>585</v>
       </c>
@@ -8335,7 +8384,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="84" spans="1:41">
+    <row r="84" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>590</v>
       </c>
@@ -8361,7 +8410,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="85" spans="1:41">
+    <row r="85" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>595</v>
       </c>
@@ -8387,7 +8436,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="86" spans="1:41">
+    <row r="86" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>600</v>
       </c>
@@ -8413,7 +8462,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="87" spans="1:41">
+    <row r="87" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>605</v>
       </c>
@@ -8439,7 +8488,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="88" spans="1:41">
+    <row r="88" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>610</v>
       </c>
@@ -8465,7 +8514,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="89" spans="1:41">
+    <row r="89" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>615</v>
       </c>
@@ -8491,7 +8540,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="90" spans="1:41">
+    <row r="90" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>620</v>
       </c>
@@ -8517,7 +8566,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="91" spans="1:41">
+    <row r="91" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>625</v>
       </c>
@@ -8543,7 +8592,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="92" spans="1:41">
+    <row r="92" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>630</v>
       </c>
@@ -8569,7 +8618,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="93" spans="1:41">
+    <row r="93" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>635</v>
       </c>
@@ -8595,7 +8644,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="94" spans="1:41">
+    <row r="94" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>640</v>
       </c>
@@ -8621,7 +8670,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="95" spans="1:41">
+    <row r="95" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>645</v>
       </c>
@@ -8647,7 +8696,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="96" spans="1:41">
+    <row r="96" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>650</v>
       </c>
@@ -8673,7 +8722,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="97" spans="1:41">
+    <row r="97" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>655</v>
       </c>
@@ -8699,7 +8748,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="98" spans="1:41">
+    <row r="98" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>660</v>
       </c>
@@ -8725,7 +8774,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="99" spans="1:41">
+    <row r="99" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>665</v>
       </c>
@@ -8751,7 +8800,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="100" spans="1:41">
+    <row r="100" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>670</v>
       </c>
@@ -8777,7 +8826,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="101" spans="1:41">
+    <row r="101" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>675</v>
       </c>
@@ -8803,7 +8852,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="102" spans="1:41">
+    <row r="102" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>680</v>
       </c>
@@ -8829,7 +8878,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="103" spans="1:41">
+    <row r="103" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>685</v>
       </c>
@@ -8855,7 +8904,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="104" spans="1:41">
+    <row r="104" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>690</v>
       </c>
@@ -8881,7 +8930,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="105" spans="1:41">
+    <row r="105" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>695</v>
       </c>
@@ -8907,7 +8956,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="106" spans="1:41">
+    <row r="106" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>700</v>
       </c>
@@ -8933,7 +8982,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="107" spans="1:41">
+    <row r="107" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>705</v>
       </c>
@@ -8959,7 +9008,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="108" spans="1:41">
+    <row r="108" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>710</v>
       </c>
@@ -8985,7 +9034,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="109" spans="1:41">
+    <row r="109" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>715</v>
       </c>
@@ -9011,7 +9060,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="110" spans="1:41">
+    <row r="110" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>720</v>
       </c>
@@ -9037,7 +9086,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="111" spans="1:41">
+    <row r="111" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>725</v>
       </c>
@@ -9063,7 +9112,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="112" spans="1:41">
+    <row r="112" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>730</v>
       </c>
@@ -9089,7 +9138,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="113" spans="1:41">
+    <row r="113" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>735</v>
       </c>
@@ -9115,7 +9164,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="114" spans="1:41">
+    <row r="114" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>740</v>
       </c>
@@ -9141,7 +9190,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="115" spans="1:41">
+    <row r="115" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>745</v>
       </c>
@@ -9167,7 +9216,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="116" spans="1:41">
+    <row r="116" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>750</v>
       </c>
@@ -9193,7 +9242,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="117" spans="1:41">
+    <row r="117" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>755</v>
       </c>
@@ -9219,7 +9268,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="118" spans="1:41">
+    <row r="118" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>760</v>
       </c>
@@ -9245,7 +9294,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="119" spans="1:41">
+    <row r="119" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>765</v>
       </c>
@@ -9271,7 +9320,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="120" spans="1:41">
+    <row r="120" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>770</v>
       </c>
@@ -9297,7 +9346,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="121" spans="1:41">
+    <row r="121" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>775</v>
       </c>
@@ -9323,7 +9372,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="122" spans="1:41">
+    <row r="122" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>780</v>
       </c>
@@ -9349,7 +9398,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="123" spans="1:41">
+    <row r="123" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>785</v>
       </c>
@@ -9375,7 +9424,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="124" spans="1:41">
+    <row r="124" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>790</v>
       </c>
@@ -9401,7 +9450,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="125" spans="1:41">
+    <row r="125" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>795</v>
       </c>
@@ -9427,7 +9476,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="126" spans="1:41">
+    <row r="126" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>800</v>
       </c>
@@ -9453,7 +9502,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="127" spans="1:41">
+    <row r="127" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>805</v>
       </c>
@@ -9479,7 +9528,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="128" spans="1:41">
+    <row r="128" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>810</v>
       </c>
@@ -9505,7 +9554,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="129" spans="1:41">
+    <row r="129" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>815</v>
       </c>
@@ -9537,93 +9586,91 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BY27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="72.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="70.7109375" customWidth="1"/>
-    <col min="4" max="4" width="46.7109375" customWidth="1"/>
-    <col min="5" max="5" width="61.7109375" customWidth="1"/>
-    <col min="6" max="6" width="62.7109375" customWidth="1"/>
-    <col min="7" max="7" width="176.7109375" customWidth="1"/>
-    <col min="8" max="8" width="171.7109375" customWidth="1"/>
-    <col min="9" max="9" width="134.7109375" customWidth="1"/>
-    <col min="10" max="10" width="46.7109375" customWidth="1"/>
-    <col min="11" max="11" width="103.7109375" customWidth="1"/>
-    <col min="12" max="12" width="58.7109375" customWidth="1"/>
-    <col min="13" max="13" width="141.7109375" customWidth="1"/>
-    <col min="14" max="14" width="42.7109375" customWidth="1"/>
-    <col min="15" max="15" width="58.7109375" customWidth="1"/>
-    <col min="16" max="16" width="141.7109375" customWidth="1"/>
-    <col min="17" max="17" width="62.7109375" customWidth="1"/>
-    <col min="18" max="18" width="58.7109375" customWidth="1"/>
-    <col min="19" max="19" width="141.7109375" customWidth="1"/>
-    <col min="20" max="20" width="65.7109375" customWidth="1"/>
-    <col min="21" max="21" width="221.7109375" customWidth="1"/>
-    <col min="22" max="22" width="106.7109375" customWidth="1"/>
-    <col min="23" max="23" width="69.7109375" customWidth="1"/>
-    <col min="24" max="24" width="58.7109375" customWidth="1"/>
-    <col min="25" max="25" width="141.7109375" customWidth="1"/>
-    <col min="26" max="26" width="77.7109375" customWidth="1"/>
-    <col min="27" max="27" width="58.7109375" customWidth="1"/>
-    <col min="28" max="28" width="141.7109375" customWidth="1"/>
-    <col min="29" max="29" width="82.7109375" customWidth="1"/>
-    <col min="30" max="30" width="58.7109375" customWidth="1"/>
-    <col min="31" max="31" width="141.7109375" customWidth="1"/>
-    <col min="32" max="32" width="134.7109375" customWidth="1"/>
-    <col min="33" max="33" width="90.7109375" customWidth="1"/>
-    <col min="34" max="34" width="52.7109375" customWidth="1"/>
-    <col min="35" max="35" width="143.7109375" customWidth="1"/>
-    <col min="36" max="36" width="136.7109375" customWidth="1"/>
-    <col min="37" max="37" width="147.7109375" customWidth="1"/>
-    <col min="38" max="38" width="155.7109375" customWidth="1"/>
-    <col min="39" max="39" width="172.7109375" customWidth="1"/>
-    <col min="40" max="40" width="129.7109375" customWidth="1"/>
-    <col min="41" max="41" width="137.7109375" customWidth="1"/>
-    <col min="42" max="42" width="74.7109375" customWidth="1"/>
-    <col min="43" max="43" width="89.7109375" customWidth="1"/>
-    <col min="44" max="44" width="174.7109375" customWidth="1"/>
-    <col min="45" max="45" width="154.7109375" customWidth="1"/>
-    <col min="46" max="46" width="69.7109375" customWidth="1"/>
-    <col min="47" max="47" width="58.7109375" customWidth="1"/>
-    <col min="48" max="48" width="141.7109375" customWidth="1"/>
-    <col min="49" max="49" width="109.7109375" customWidth="1"/>
-    <col min="50" max="50" width="69.7109375" customWidth="1"/>
-    <col min="51" max="51" width="58.7109375" customWidth="1"/>
-    <col min="52" max="52" width="141.7109375" customWidth="1"/>
-    <col min="53" max="53" width="106.7109375" customWidth="1"/>
-    <col min="54" max="54" width="69.7109375" customWidth="1"/>
-    <col min="55" max="55" width="58.7109375" customWidth="1"/>
-    <col min="56" max="56" width="141.7109375" customWidth="1"/>
-    <col min="57" max="57" width="108.7109375" customWidth="1"/>
-    <col min="58" max="58" width="69.7109375" customWidth="1"/>
-    <col min="59" max="59" width="58.7109375" customWidth="1"/>
-    <col min="60" max="60" width="141.7109375" customWidth="1"/>
-    <col min="61" max="61" width="117.7109375" customWidth="1"/>
-    <col min="62" max="62" width="32.7109375" customWidth="1"/>
-    <col min="63" max="63" width="67.7109375" customWidth="1"/>
-    <col min="64" max="64" width="41.7109375" customWidth="1"/>
-    <col min="65" max="65" width="84.7109375" customWidth="1"/>
-    <col min="66" max="66" width="104.7109375" customWidth="1"/>
-    <col min="67" max="67" width="104.7109375" customWidth="1"/>
-    <col min="68" max="68" width="104.7109375" customWidth="1"/>
-    <col min="69" max="69" width="88.7109375" customWidth="1"/>
-    <col min="70" max="70" width="69.7109375" customWidth="1"/>
-    <col min="71" max="71" width="58.7109375" customWidth="1"/>
-    <col min="72" max="72" width="141.7109375" customWidth="1"/>
-    <col min="73" max="73" width="67.7109375" customWidth="1"/>
-    <col min="74" max="74" width="58.7109375" customWidth="1"/>
-    <col min="75" max="75" width="141.7109375" customWidth="1"/>
-    <col min="76" max="76" width="79.7109375" customWidth="1"/>
-    <col min="77" max="77" width="175.7109375" customWidth="1"/>
+    <col min="1" max="1" width="72.6640625" customWidth="1"/>
+    <col min="2" max="2" width="71.6640625" customWidth="1"/>
+    <col min="3" max="3" width="70.6640625" customWidth="1"/>
+    <col min="4" max="4" width="46.6640625" customWidth="1"/>
+    <col min="5" max="5" width="61.6640625" customWidth="1"/>
+    <col min="6" max="6" width="62.6640625" customWidth="1"/>
+    <col min="7" max="7" width="176.6640625" customWidth="1"/>
+    <col min="8" max="8" width="171.6640625" customWidth="1"/>
+    <col min="9" max="9" width="134.6640625" customWidth="1"/>
+    <col min="10" max="10" width="46.6640625" customWidth="1"/>
+    <col min="11" max="11" width="103.6640625" customWidth="1"/>
+    <col min="12" max="12" width="58.6640625" customWidth="1"/>
+    <col min="13" max="13" width="141.6640625" customWidth="1"/>
+    <col min="14" max="14" width="42.6640625" customWidth="1"/>
+    <col min="15" max="15" width="58.6640625" customWidth="1"/>
+    <col min="16" max="16" width="141.6640625" customWidth="1"/>
+    <col min="17" max="17" width="62.6640625" customWidth="1"/>
+    <col min="18" max="18" width="58.6640625" customWidth="1"/>
+    <col min="19" max="19" width="141.6640625" customWidth="1"/>
+    <col min="20" max="20" width="65.6640625" customWidth="1"/>
+    <col min="21" max="21" width="221.6640625" customWidth="1"/>
+    <col min="22" max="22" width="106.6640625" customWidth="1"/>
+    <col min="23" max="23" width="69.6640625" customWidth="1"/>
+    <col min="24" max="24" width="58.6640625" customWidth="1"/>
+    <col min="25" max="25" width="141.6640625" customWidth="1"/>
+    <col min="26" max="26" width="77.6640625" customWidth="1"/>
+    <col min="27" max="27" width="58.6640625" customWidth="1"/>
+    <col min="28" max="28" width="141.6640625" customWidth="1"/>
+    <col min="29" max="29" width="82.6640625" customWidth="1"/>
+    <col min="30" max="30" width="58.6640625" customWidth="1"/>
+    <col min="31" max="31" width="141.6640625" customWidth="1"/>
+    <col min="32" max="32" width="134.6640625" customWidth="1"/>
+    <col min="33" max="33" width="90.6640625" customWidth="1"/>
+    <col min="34" max="34" width="52.6640625" customWidth="1"/>
+    <col min="35" max="35" width="143.6640625" customWidth="1"/>
+    <col min="36" max="36" width="136.6640625" customWidth="1"/>
+    <col min="37" max="37" width="147.6640625" customWidth="1"/>
+    <col min="38" max="38" width="155.6640625" customWidth="1"/>
+    <col min="39" max="39" width="172.6640625" customWidth="1"/>
+    <col min="40" max="40" width="129.6640625" customWidth="1"/>
+    <col min="41" max="41" width="137.6640625" customWidth="1"/>
+    <col min="42" max="42" width="74.6640625" customWidth="1"/>
+    <col min="43" max="43" width="89.6640625" customWidth="1"/>
+    <col min="44" max="44" width="174.6640625" customWidth="1"/>
+    <col min="45" max="45" width="154.6640625" customWidth="1"/>
+    <col min="46" max="46" width="69.6640625" customWidth="1"/>
+    <col min="47" max="47" width="58.6640625" customWidth="1"/>
+    <col min="48" max="48" width="141.6640625" customWidth="1"/>
+    <col min="49" max="49" width="109.6640625" customWidth="1"/>
+    <col min="50" max="50" width="69.6640625" customWidth="1"/>
+    <col min="51" max="51" width="58.6640625" customWidth="1"/>
+    <col min="52" max="52" width="141.6640625" customWidth="1"/>
+    <col min="53" max="53" width="106.6640625" customWidth="1"/>
+    <col min="54" max="54" width="69.6640625" customWidth="1"/>
+    <col min="55" max="55" width="58.6640625" customWidth="1"/>
+    <col min="56" max="56" width="141.6640625" customWidth="1"/>
+    <col min="57" max="57" width="108.6640625" customWidth="1"/>
+    <col min="58" max="58" width="69.6640625" customWidth="1"/>
+    <col min="59" max="59" width="58.6640625" customWidth="1"/>
+    <col min="60" max="60" width="141.6640625" customWidth="1"/>
+    <col min="61" max="61" width="117.6640625" customWidth="1"/>
+    <col min="62" max="62" width="32.6640625" customWidth="1"/>
+    <col min="63" max="63" width="67.6640625" customWidth="1"/>
+    <col min="64" max="64" width="41.6640625" customWidth="1"/>
+    <col min="65" max="65" width="84.6640625" customWidth="1"/>
+    <col min="66" max="68" width="104.6640625" customWidth="1"/>
+    <col min="69" max="69" width="88.6640625" customWidth="1"/>
+    <col min="70" max="70" width="69.6640625" customWidth="1"/>
+    <col min="71" max="71" width="58.6640625" customWidth="1"/>
+    <col min="72" max="72" width="141.6640625" customWidth="1"/>
+    <col min="73" max="73" width="67.6640625" customWidth="1"/>
+    <col min="74" max="74" width="58.6640625" customWidth="1"/>
+    <col min="75" max="75" width="141.6640625" customWidth="1"/>
+    <col min="76" max="76" width="79.6640625" customWidth="1"/>
+    <col min="77" max="77" width="175.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:77">
+    <row r="1" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>820</v>
       </c>
@@ -9856,7 +9903,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:77">
+    <row r="2" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -10089,7 +10136,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:77">
+    <row r="3" spans="1:77" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>105</v>
       </c>
@@ -10304,7 +10351,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:77">
+    <row r="4" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>924</v>
       </c>
@@ -10537,12 +10584,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:77">
+    <row r="5" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:77">
+    <row r="6" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>985</v>
       </c>
@@ -10556,7 +10603,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="7" spans="1:77">
+    <row r="7" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>988</v>
       </c>
@@ -10570,7 +10617,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="8" spans="1:77">
+    <row r="8" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>989</v>
       </c>
@@ -10584,7 +10631,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="9" spans="1:77">
+    <row r="9" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>990</v>
       </c>
@@ -10598,7 +10645,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="10" spans="1:77">
+    <row r="10" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>991</v>
       </c>
@@ -10612,7 +10659,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="11" spans="1:77">
+    <row r="11" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>992</v>
       </c>
@@ -10626,7 +10673,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="12" spans="1:77">
+    <row r="12" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>993</v>
       </c>
@@ -10640,7 +10687,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="13" spans="1:77">
+    <row r="13" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>994</v>
       </c>
@@ -10654,7 +10701,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="14" spans="1:77">
+    <row r="14" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>995</v>
       </c>
@@ -10668,7 +10715,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="15" spans="1:77">
+    <row r="15" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>996</v>
       </c>
@@ -10682,7 +10729,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="16" spans="1:77">
+    <row r="16" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>998</v>
       </c>
@@ -10696,7 +10743,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>999</v>
       </c>
@@ -10710,7 +10757,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>1000</v>
       </c>
@@ -10724,7 +10771,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>1001</v>
       </c>
@@ -10738,7 +10785,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>1002</v>
       </c>
@@ -10752,7 +10799,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>1003</v>
       </c>
@@ -10766,7 +10813,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>1004</v>
       </c>
@@ -10780,7 +10827,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>1005</v>
       </c>
@@ -10794,7 +10841,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>1006</v>
       </c>
@@ -10808,7 +10855,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>1007</v>
       </c>
@@ -10822,7 +10869,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>1008</v>
       </c>
@@ -10836,7 +10883,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>1009</v>
       </c>
@@ -10856,67 +10903,65 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AY7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="80.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="235.7109375" customWidth="1"/>
-    <col min="4" max="4" width="66.7109375" customWidth="1"/>
-    <col min="5" max="5" width="67.7109375" customWidth="1"/>
-    <col min="6" max="6" width="69.7109375" customWidth="1"/>
-    <col min="7" max="7" width="71.7109375" customWidth="1"/>
-    <col min="8" max="8" width="57.7109375" customWidth="1"/>
-    <col min="9" max="9" width="57.7109375" customWidth="1"/>
-    <col min="10" max="10" width="80.7109375" customWidth="1"/>
-    <col min="11" max="11" width="84.7109375" customWidth="1"/>
-    <col min="12" max="12" width="66.7109375" customWidth="1"/>
-    <col min="13" max="13" width="141.7109375" customWidth="1"/>
-    <col min="14" max="14" width="102.7109375" customWidth="1"/>
-    <col min="15" max="15" width="67.7109375" customWidth="1"/>
-    <col min="16" max="16" width="66.7109375" customWidth="1"/>
-    <col min="17" max="17" width="141.7109375" customWidth="1"/>
-    <col min="18" max="18" width="90.7109375" customWidth="1"/>
-    <col min="19" max="19" width="69.7109375" customWidth="1"/>
-    <col min="20" max="20" width="67.7109375" customWidth="1"/>
-    <col min="21" max="21" width="65.7109375" customWidth="1"/>
-    <col min="22" max="22" width="111.7109375" customWidth="1"/>
-    <col min="23" max="23" width="91.7109375" customWidth="1"/>
-    <col min="24" max="24" width="90.7109375" customWidth="1"/>
-    <col min="25" max="25" width="72.7109375" customWidth="1"/>
-    <col min="26" max="26" width="70.7109375" customWidth="1"/>
-    <col min="27" max="27" width="68.7109375" customWidth="1"/>
-    <col min="28" max="28" width="111.7109375" customWidth="1"/>
-    <col min="29" max="29" width="91.7109375" customWidth="1"/>
-    <col min="30" max="30" width="161.7109375" customWidth="1"/>
-    <col min="31" max="31" width="52.7109375" customWidth="1"/>
-    <col min="32" max="32" width="320.7109375" customWidth="1"/>
-    <col min="33" max="33" width="90.7109375" customWidth="1"/>
-    <col min="34" max="34" width="57.7109375" customWidth="1"/>
-    <col min="35" max="35" width="55.7109375" customWidth="1"/>
-    <col min="36" max="36" width="53.7109375" customWidth="1"/>
-    <col min="37" max="37" width="111.7109375" customWidth="1"/>
-    <col min="38" max="38" width="91.7109375" customWidth="1"/>
-    <col min="39" max="39" width="47.7109375" customWidth="1"/>
-    <col min="40" max="40" width="71.7109375" customWidth="1"/>
-    <col min="41" max="41" width="56.7109375" customWidth="1"/>
-    <col min="42" max="42" width="56.7109375" customWidth="1"/>
-    <col min="43" max="43" width="80.7109375" customWidth="1"/>
-    <col min="44" max="44" width="67.7109375" customWidth="1"/>
-    <col min="45" max="45" width="70.7109375" customWidth="1"/>
-    <col min="46" max="46" width="141.7109375" customWidth="1"/>
-    <col min="47" max="47" width="68.7109375" customWidth="1"/>
-    <col min="48" max="48" width="72.7109375" customWidth="1"/>
-    <col min="49" max="49" width="141.7109375" customWidth="1"/>
-    <col min="50" max="50" width="56.7109375" customWidth="1"/>
-    <col min="51" max="51" width="74.7109375" customWidth="1"/>
+    <col min="1" max="1" width="80.6640625" customWidth="1"/>
+    <col min="2" max="2" width="71.6640625" customWidth="1"/>
+    <col min="3" max="3" width="235.6640625" customWidth="1"/>
+    <col min="4" max="4" width="66.6640625" customWidth="1"/>
+    <col min="5" max="5" width="67.6640625" customWidth="1"/>
+    <col min="6" max="6" width="69.6640625" customWidth="1"/>
+    <col min="7" max="7" width="71.6640625" customWidth="1"/>
+    <col min="8" max="9" width="57.6640625" customWidth="1"/>
+    <col min="10" max="10" width="80.6640625" customWidth="1"/>
+    <col min="11" max="11" width="84.6640625" customWidth="1"/>
+    <col min="12" max="12" width="66.6640625" customWidth="1"/>
+    <col min="13" max="13" width="141.6640625" customWidth="1"/>
+    <col min="14" max="14" width="102.6640625" customWidth="1"/>
+    <col min="15" max="15" width="67.6640625" customWidth="1"/>
+    <col min="16" max="16" width="66.6640625" customWidth="1"/>
+    <col min="17" max="17" width="141.6640625" customWidth="1"/>
+    <col min="18" max="18" width="90.6640625" customWidth="1"/>
+    <col min="19" max="19" width="69.6640625" customWidth="1"/>
+    <col min="20" max="20" width="67.6640625" customWidth="1"/>
+    <col min="21" max="21" width="65.6640625" customWidth="1"/>
+    <col min="22" max="22" width="111.6640625" customWidth="1"/>
+    <col min="23" max="23" width="91.6640625" customWidth="1"/>
+    <col min="24" max="24" width="90.6640625" customWidth="1"/>
+    <col min="25" max="25" width="72.6640625" customWidth="1"/>
+    <col min="26" max="26" width="70.6640625" customWidth="1"/>
+    <col min="27" max="27" width="68.6640625" customWidth="1"/>
+    <col min="28" max="28" width="111.6640625" customWidth="1"/>
+    <col min="29" max="29" width="91.6640625" customWidth="1"/>
+    <col min="30" max="30" width="161.6640625" customWidth="1"/>
+    <col min="31" max="31" width="52.6640625" customWidth="1"/>
+    <col min="32" max="32" width="320.6640625" customWidth="1"/>
+    <col min="33" max="33" width="90.6640625" customWidth="1"/>
+    <col min="34" max="34" width="57.6640625" customWidth="1"/>
+    <col min="35" max="35" width="55.6640625" customWidth="1"/>
+    <col min="36" max="36" width="53.6640625" customWidth="1"/>
+    <col min="37" max="37" width="111.6640625" customWidth="1"/>
+    <col min="38" max="38" width="91.6640625" customWidth="1"/>
+    <col min="39" max="39" width="47.6640625" customWidth="1"/>
+    <col min="40" max="40" width="71.6640625" customWidth="1"/>
+    <col min="41" max="42" width="56.6640625" customWidth="1"/>
+    <col min="43" max="43" width="80.6640625" customWidth="1"/>
+    <col min="44" max="44" width="67.6640625" customWidth="1"/>
+    <col min="45" max="45" width="70.6640625" customWidth="1"/>
+    <col min="46" max="46" width="141.6640625" customWidth="1"/>
+    <col min="47" max="47" width="68.6640625" customWidth="1"/>
+    <col min="48" max="48" width="72.6640625" customWidth="1"/>
+    <col min="49" max="49" width="141.6640625" customWidth="1"/>
+    <col min="50" max="50" width="56.6640625" customWidth="1"/>
+    <col min="51" max="51" width="74.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1010</v>
       </c>
@@ -11071,7 +11116,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="2" spans="1:51">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -11226,7 +11271,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="3" spans="1:51">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>139</v>
       </c>
@@ -11375,7 +11420,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="4" spans="1:51">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1111</v>
       </c>
@@ -11530,12 +11575,12 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="5" spans="1:51">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:51">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1162</v>
       </c>
@@ -11546,7 +11591,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="7" spans="1:51">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1165</v>
       </c>
@@ -11563,25 +11608,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="162.7109375" customWidth="1"/>
-    <col min="2" max="2" width="153.7109375" customWidth="1"/>
-    <col min="3" max="3" width="353.7109375" customWidth="1"/>
-    <col min="4" max="4" width="1773.7109375" customWidth="1"/>
-    <col min="5" max="5" width="171.7109375" customWidth="1"/>
-    <col min="6" max="6" width="99.7109375" customWidth="1"/>
-    <col min="7" max="7" width="99.7109375" customWidth="1"/>
-    <col min="8" max="8" width="174.7109375" customWidth="1"/>
-    <col min="9" max="9" width="75.7109375" customWidth="1"/>
+    <col min="1" max="1" width="162.6640625" customWidth="1"/>
+    <col min="2" max="2" width="153.6640625" customWidth="1"/>
+    <col min="3" max="3" width="353.6640625" customWidth="1"/>
+    <col min="4" max="4" width="1773.6640625" customWidth="1"/>
+    <col min="5" max="5" width="171.6640625" customWidth="1"/>
+    <col min="6" max="7" width="99.6640625" customWidth="1"/>
+    <col min="8" max="8" width="174.6640625" customWidth="1"/>
+    <col min="9" max="9" width="75.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1167</v>
       </c>
@@ -11610,7 +11654,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1176</v>
       </c>
@@ -11639,7 +11683,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1185</v>
       </c>
@@ -11668,7 +11712,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1194</v>
       </c>
@@ -11697,12 +11741,12 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1203</v>
       </c>
@@ -11728,28 +11772,28 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="103.7109375" customWidth="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1"/>
-    <col min="3" max="3" width="57.7109375" customWidth="1"/>
-    <col min="4" max="4" width="54.7109375" customWidth="1"/>
-    <col min="5" max="5" width="75.7109375" customWidth="1"/>
-    <col min="6" max="6" width="127.7109375" customWidth="1"/>
-    <col min="7" max="7" width="36.7109375" customWidth="1"/>
-    <col min="8" max="8" width="70.7109375" customWidth="1"/>
-    <col min="9" max="9" width="64.7109375" customWidth="1"/>
-    <col min="10" max="10" width="58.7109375" customWidth="1"/>
-    <col min="11" max="11" width="141.7109375" customWidth="1"/>
-    <col min="12" max="12" width="51.7109375" customWidth="1"/>
+    <col min="1" max="1" width="103.6640625" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" customWidth="1"/>
+    <col min="3" max="3" width="57.6640625" customWidth="1"/>
+    <col min="4" max="4" width="54.6640625" customWidth="1"/>
+    <col min="5" max="5" width="75.6640625" customWidth="1"/>
+    <col min="6" max="6" width="127.6640625" customWidth="1"/>
+    <col min="7" max="7" width="36.6640625" customWidth="1"/>
+    <col min="8" max="8" width="70.6640625" customWidth="1"/>
+    <col min="9" max="9" width="64.6640625" customWidth="1"/>
+    <col min="10" max="10" width="58.6640625" customWidth="1"/>
+    <col min="11" max="11" width="141.6640625" customWidth="1"/>
+    <col min="12" max="12" width="51.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1209</v>
       </c>
@@ -11787,7 +11831,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1221</v>
       </c>
@@ -11825,7 +11869,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1231</v>
       </c>
@@ -11863,7 +11907,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1242</v>
       </c>
@@ -11901,12 +11945,12 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1254</v>
       </c>
@@ -11929,21 +11973,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="67.7109375" customWidth="1"/>
-    <col min="2" max="2" width="55.7109375" customWidth="1"/>
-    <col min="3" max="3" width="68.7109375" customWidth="1"/>
-    <col min="4" max="4" width="34.7109375" customWidth="1"/>
-    <col min="5" max="5" width="68.7109375" customWidth="1"/>
+    <col min="1" max="1" width="67.6640625" customWidth="1"/>
+    <col min="2" max="2" width="55.6640625" customWidth="1"/>
+    <col min="3" max="3" width="68.6640625" customWidth="1"/>
+    <col min="4" max="4" width="34.6640625" customWidth="1"/>
+    <col min="5" max="5" width="68.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1259</v>
       </c>
@@ -11960,7 +12004,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1263</v>
       </c>
@@ -11977,7 +12021,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1268</v>
       </c>
@@ -11994,7 +12038,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1273</v>
       </c>
@@ -12011,12 +12055,12 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
         <v>1278</v>
       </c>
@@ -12027,46 +12071,44 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AD129"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="85.7109375" customWidth="1"/>
-    <col min="2" max="2" width="94.7109375" customWidth="1"/>
-    <col min="3" max="3" width="53.7109375" customWidth="1"/>
-    <col min="4" max="4" width="58.7109375" customWidth="1"/>
-    <col min="5" max="5" width="141.7109375" customWidth="1"/>
-    <col min="6" max="6" width="47.7109375" customWidth="1"/>
-    <col min="7" max="7" width="117.7109375" customWidth="1"/>
-    <col min="8" max="8" width="44.7109375" customWidth="1"/>
-    <col min="9" max="9" width="61.7109375" customWidth="1"/>
-    <col min="10" max="10" width="168.7109375" customWidth="1"/>
-    <col min="11" max="11" width="156.7109375" customWidth="1"/>
-    <col min="12" max="12" width="73.7109375" customWidth="1"/>
-    <col min="13" max="13" width="80.7109375" customWidth="1"/>
-    <col min="14" max="14" width="71.7109375" customWidth="1"/>
-    <col min="15" max="15" width="32.7109375" customWidth="1"/>
-    <col min="16" max="16" width="67.7109375" customWidth="1"/>
-    <col min="17" max="17" width="41.7109375" customWidth="1"/>
-    <col min="18" max="18" width="84.7109375" customWidth="1"/>
-    <col min="19" max="19" width="104.7109375" customWidth="1"/>
-    <col min="20" max="20" width="104.7109375" customWidth="1"/>
-    <col min="21" max="21" width="104.7109375" customWidth="1"/>
-    <col min="22" max="22" width="88.7109375" customWidth="1"/>
-    <col min="23" max="23" width="69.7109375" customWidth="1"/>
-    <col min="24" max="24" width="58.7109375" customWidth="1"/>
-    <col min="25" max="25" width="141.7109375" customWidth="1"/>
-    <col min="26" max="26" width="67.7109375" customWidth="1"/>
-    <col min="27" max="27" width="58.7109375" customWidth="1"/>
-    <col min="28" max="28" width="141.7109375" customWidth="1"/>
-    <col min="29" max="29" width="79.7109375" customWidth="1"/>
-    <col min="30" max="30" width="175.7109375" customWidth="1"/>
+    <col min="1" max="1" width="85.6640625" customWidth="1"/>
+    <col min="2" max="2" width="94.6640625" customWidth="1"/>
+    <col min="3" max="3" width="53.6640625" customWidth="1"/>
+    <col min="4" max="4" width="58.6640625" customWidth="1"/>
+    <col min="5" max="5" width="141.6640625" customWidth="1"/>
+    <col min="6" max="6" width="47.6640625" customWidth="1"/>
+    <col min="7" max="7" width="117.6640625" customWidth="1"/>
+    <col min="8" max="8" width="44.6640625" customWidth="1"/>
+    <col min="9" max="9" width="61.6640625" customWidth="1"/>
+    <col min="10" max="10" width="168.6640625" customWidth="1"/>
+    <col min="11" max="11" width="156.6640625" customWidth="1"/>
+    <col min="12" max="12" width="73.6640625" customWidth="1"/>
+    <col min="13" max="13" width="80.6640625" customWidth="1"/>
+    <col min="14" max="14" width="71.6640625" customWidth="1"/>
+    <col min="15" max="15" width="32.6640625" customWidth="1"/>
+    <col min="16" max="16" width="67.6640625" customWidth="1"/>
+    <col min="17" max="17" width="41.6640625" customWidth="1"/>
+    <col min="18" max="18" width="84.6640625" customWidth="1"/>
+    <col min="19" max="21" width="104.6640625" customWidth="1"/>
+    <col min="22" max="22" width="88.6640625" customWidth="1"/>
+    <col min="23" max="23" width="69.6640625" customWidth="1"/>
+    <col min="24" max="24" width="58.6640625" customWidth="1"/>
+    <col min="25" max="25" width="141.6640625" customWidth="1"/>
+    <col min="26" max="26" width="67.6640625" customWidth="1"/>
+    <col min="27" max="27" width="58.6640625" customWidth="1"/>
+    <col min="28" max="28" width="141.6640625" customWidth="1"/>
+    <col min="29" max="29" width="79.6640625" customWidth="1"/>
+    <col min="30" max="30" width="175.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1279</v>
       </c>
@@ -12158,7 +12200,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1291</v>
       </c>
@@ -12250,7 +12292,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1300</v>
       </c>
@@ -12330,7 +12372,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1310</v>
       </c>
@@ -12422,12 +12464,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1322</v>
       </c>
@@ -12450,7 +12492,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1327</v>
       </c>
@@ -12473,7 +12515,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1329</v>
       </c>
@@ -12496,7 +12538,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1331</v>
       </c>
@@ -12519,7 +12561,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>1333</v>
       </c>
@@ -12542,7 +12584,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>1335</v>
       </c>
@@ -12565,7 +12607,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1337</v>
       </c>
@@ -12588,7 +12630,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1339</v>
       </c>
@@ -12611,7 +12653,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>1341</v>
       </c>
@@ -12634,7 +12676,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>1343</v>
       </c>
@@ -12657,7 +12699,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>1345</v>
       </c>
@@ -12680,7 +12722,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>1347</v>
       </c>
@@ -12703,7 +12745,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>1349</v>
       </c>
@@ -12726,7 +12768,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>1351</v>
       </c>
@@ -12749,7 +12791,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>1353</v>
       </c>
@@ -12772,7 +12814,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>1356</v>
       </c>
@@ -12795,7 +12837,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>1358</v>
       </c>
@@ -12818,7 +12860,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>1360</v>
       </c>
@@ -12841,7 +12883,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>1362</v>
       </c>
@@ -12864,7 +12906,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>1364</v>
       </c>
@@ -12887,7 +12929,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>1366</v>
       </c>
@@ -12910,7 +12952,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>1368</v>
       </c>
@@ -12933,7 +12975,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>1370</v>
       </c>
@@ -12956,7 +12998,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>1372</v>
       </c>
@@ -12979,7 +13021,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>1374</v>
       </c>
@@ -13002,7 +13044,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>1376</v>
       </c>
@@ -13025,7 +13067,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>1378</v>
       </c>
@@ -13048,7 +13090,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>1380</v>
       </c>
@@ -13071,7 +13113,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>1382</v>
       </c>
@@ -13094,7 +13136,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>1384</v>
       </c>
@@ -13117,7 +13159,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>1386</v>
       </c>
@@ -13140,7 +13182,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>1388</v>
       </c>
@@ -13163,7 +13205,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>1390</v>
       </c>
@@ -13186,7 +13228,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>1392</v>
       </c>
@@ -13209,7 +13251,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>1394</v>
       </c>
@@ -13232,7 +13274,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>1396</v>
       </c>
@@ -13255,7 +13297,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>1398</v>
       </c>
@@ -13278,7 +13320,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>1400</v>
       </c>
@@ -13301,7 +13343,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>1402</v>
       </c>
@@ -13324,7 +13366,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>1404</v>
       </c>
@@ -13347,7 +13389,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>1406</v>
       </c>
@@ -13370,7 +13412,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>1408</v>
       </c>
@@ -13393,7 +13435,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>1410</v>
       </c>
@@ -13416,7 +13458,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>1412</v>
       </c>
@@ -13439,7 +13481,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>1414</v>
       </c>
@@ -13462,7 +13504,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>1416</v>
       </c>
@@ -13485,7 +13527,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>1418</v>
       </c>
@@ -13508,7 +13550,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>1420</v>
       </c>
@@ -13531,7 +13573,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>1422</v>
       </c>
@@ -13554,7 +13596,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>1424</v>
       </c>
@@ -13577,7 +13619,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>1426</v>
       </c>
@@ -13600,7 +13642,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>1428</v>
       </c>
@@ -13623,7 +13665,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>1430</v>
       </c>
@@ -13646,7 +13688,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>1432</v>
       </c>
@@ -13669,7 +13711,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>1434</v>
       </c>
@@ -13692,7 +13734,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>1436</v>
       </c>
@@ -13715,7 +13757,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>1438</v>
       </c>
@@ -13738,7 +13780,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>1440</v>
       </c>
@@ -13761,7 +13803,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>1442</v>
       </c>
@@ -13784,7 +13826,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>1444</v>
       </c>
@@ -13807,7 +13849,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>1446</v>
       </c>
@@ -13830,7 +13872,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>1448</v>
       </c>
@@ -13853,7 +13895,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>1450</v>
       </c>
@@ -13876,7 +13918,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>1452</v>
       </c>
@@ -13899,7 +13941,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>1454</v>
       </c>
@@ -13922,7 +13964,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>1456</v>
       </c>
@@ -13945,7 +13987,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>1458</v>
       </c>
@@ -13968,7 +14010,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>1460</v>
       </c>
@@ -13991,7 +14033,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>1462</v>
       </c>
@@ -14014,7 +14056,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>1464</v>
       </c>
@@ -14037,7 +14079,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>1466</v>
       </c>
@@ -14060,7 +14102,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>1468</v>
       </c>
@@ -14083,7 +14125,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="78" spans="1:14">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>1470</v>
       </c>
@@ -14106,7 +14148,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="79" spans="1:14">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>1472</v>
       </c>
@@ -14129,7 +14171,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="80" spans="1:14">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>1474</v>
       </c>
@@ -14152,7 +14194,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="81" spans="1:14">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>1476</v>
       </c>
@@ -14175,7 +14217,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="82" spans="1:14">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>1478</v>
       </c>
@@ -14198,7 +14240,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="83" spans="1:14">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>1480</v>
       </c>
@@ -14221,7 +14263,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="84" spans="1:14">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>1482</v>
       </c>
@@ -14244,7 +14286,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="85" spans="1:14">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>1484</v>
       </c>
@@ -14267,7 +14309,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="86" spans="1:14">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>1486</v>
       </c>
@@ -14290,7 +14332,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="87" spans="1:14">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>1488</v>
       </c>
@@ -14313,7 +14355,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="88" spans="1:14">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>1490</v>
       </c>
@@ -14336,7 +14378,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="89" spans="1:14">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>1492</v>
       </c>
@@ -14359,7 +14401,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="90" spans="1:14">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>1494</v>
       </c>
@@ -14382,7 +14424,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="91" spans="1:14">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>1496</v>
       </c>
@@ -14405,7 +14447,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="92" spans="1:14">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>1498</v>
       </c>
@@ -14428,7 +14470,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="93" spans="1:14">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>1500</v>
       </c>
@@ -14451,7 +14493,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="94" spans="1:14">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>1502</v>
       </c>
@@ -14474,7 +14516,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="95" spans="1:14">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>1504</v>
       </c>
@@ -14497,7 +14539,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="96" spans="1:14">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>1506</v>
       </c>
@@ -14520,7 +14562,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="97" spans="1:14">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>1508</v>
       </c>
@@ -14543,7 +14585,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="98" spans="1:14">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>1510</v>
       </c>
@@ -14566,7 +14608,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="99" spans="1:14">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>1512</v>
       </c>
@@ -14589,7 +14631,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="100" spans="1:14">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>1514</v>
       </c>
@@ -14612,7 +14654,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="101" spans="1:14">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>1516</v>
       </c>
@@ -14635,7 +14677,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="102" spans="1:14">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>1518</v>
       </c>
@@ -14658,7 +14700,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="103" spans="1:14">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>1520</v>
       </c>
@@ -14681,7 +14723,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="104" spans="1:14">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>1522</v>
       </c>
@@ -14704,7 +14746,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="105" spans="1:14">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>1524</v>
       </c>
@@ -14727,7 +14769,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="106" spans="1:14">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>1526</v>
       </c>
@@ -14750,7 +14792,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="107" spans="1:14">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>1528</v>
       </c>
@@ -14773,7 +14815,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="108" spans="1:14">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>1530</v>
       </c>
@@ -14796,7 +14838,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="109" spans="1:14">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>1532</v>
       </c>
@@ -14819,7 +14861,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="110" spans="1:14">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>1534</v>
       </c>
@@ -14842,7 +14884,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="111" spans="1:14">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>1536</v>
       </c>
@@ -14865,7 +14907,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="112" spans="1:14">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>1538</v>
       </c>
@@ -14888,7 +14930,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="113" spans="1:14">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>1540</v>
       </c>
@@ -14911,7 +14953,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="114" spans="1:14">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>1542</v>
       </c>
@@ -14934,7 +14976,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="115" spans="1:14">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>1544</v>
       </c>
@@ -14957,7 +14999,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="116" spans="1:14">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>1546</v>
       </c>
@@ -14980,7 +15022,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="117" spans="1:14">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>1548</v>
       </c>
@@ -15003,7 +15045,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="118" spans="1:14">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>1550</v>
       </c>
@@ -15026,7 +15068,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="119" spans="1:14">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>1552</v>
       </c>
@@ -15049,7 +15091,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="120" spans="1:14">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>1554</v>
       </c>
@@ -15072,7 +15114,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="121" spans="1:14">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>1556</v>
       </c>
@@ -15095,7 +15137,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="122" spans="1:14">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>1558</v>
       </c>
@@ -15118,7 +15160,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="123" spans="1:14">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>1560</v>
       </c>
@@ -15141,7 +15183,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="124" spans="1:14">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>1562</v>
       </c>
@@ -15164,7 +15206,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="125" spans="1:14">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>1564</v>
       </c>
@@ -15187,7 +15229,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="126" spans="1:14">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>1566</v>
       </c>
@@ -15210,7 +15252,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="127" spans="1:14">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>1568</v>
       </c>
@@ -15233,7 +15275,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="128" spans="1:14">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>1570</v>
       </c>
@@ -15256,7 +15298,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="129" spans="1:14">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>1572</v>
       </c>
@@ -15285,34 +15327,36 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="71.7109375" customWidth="1"/>
-    <col min="2" max="2" width="62.7109375" customWidth="1"/>
-    <col min="3" max="3" width="235.7109375" customWidth="1"/>
-    <col min="4" max="4" width="66.7109375" customWidth="1"/>
-    <col min="5" max="5" width="67.7109375" customWidth="1"/>
-    <col min="6" max="6" width="69.7109375" customWidth="1"/>
-    <col min="7" max="7" width="70.7109375" customWidth="1"/>
-    <col min="8" max="8" width="59.7109375" customWidth="1"/>
-    <col min="9" max="9" width="141.7109375" customWidth="1"/>
-    <col min="10" max="10" width="59.7109375" customWidth="1"/>
-    <col min="11" max="11" width="76.7109375" customWidth="1"/>
-    <col min="12" max="12" width="91.7109375" customWidth="1"/>
-    <col min="13" max="13" width="58.7109375" customWidth="1"/>
-    <col min="14" max="14" width="141.7109375" customWidth="1"/>
-    <col min="15" max="15" width="62.7109375" customWidth="1"/>
-    <col min="16" max="16" width="50.7109375" customWidth="1"/>
-    <col min="17" max="17" width="56.7109375" customWidth="1"/>
-    <col min="18" max="18" width="99.7109375" customWidth="1"/>
+    <col min="1" max="1" width="71.6640625" customWidth="1"/>
+    <col min="2" max="2" width="62.6640625" customWidth="1"/>
+    <col min="3" max="3" width="235.6640625" customWidth="1"/>
+    <col min="4" max="4" width="66.6640625" customWidth="1"/>
+    <col min="5" max="5" width="67.6640625" customWidth="1"/>
+    <col min="6" max="6" width="69.6640625" customWidth="1"/>
+    <col min="7" max="7" width="70.6640625" customWidth="1"/>
+    <col min="8" max="8" width="59.6640625" customWidth="1"/>
+    <col min="9" max="9" width="141.6640625" customWidth="1"/>
+    <col min="10" max="10" width="59.6640625" customWidth="1"/>
+    <col min="11" max="11" width="76.6640625" customWidth="1"/>
+    <col min="12" max="12" width="91.6640625" customWidth="1"/>
+    <col min="13" max="13" width="58.6640625" customWidth="1"/>
+    <col min="14" max="14" width="141.6640625" customWidth="1"/>
+    <col min="15" max="15" width="62.6640625" customWidth="1"/>
+    <col min="16" max="16" width="50.6640625" customWidth="1"/>
+    <col min="17" max="17" width="56.6640625" customWidth="1"/>
+    <col min="18" max="18" width="99.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1290</v>
       </c>
@@ -15368,7 +15412,7 @@
         <v>1587</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -15424,7 +15468,7 @@
         <v>1594</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>139</v>
       </c>
@@ -15474,7 +15518,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1321</v>
       </c>
@@ -15530,12 +15574,12 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1326</v>
       </c>
@@ -15545,8 +15589,11 @@
       <c r="G6" t="s">
         <v>1620</v>
       </c>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="K6" t="s">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1355</v>
       </c>
@@ -15555,6 +15602,9 @@
       </c>
       <c r="G7" t="s">
         <v>1620</v>
+      </c>
+      <c r="K7" t="s">
+        <v>1743</v>
       </c>
     </row>
   </sheetData>
@@ -15563,76 +15613,73 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:BH129"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="80.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="78.7109375" customWidth="1"/>
-    <col min="4" max="4" width="54.7109375" customWidth="1"/>
-    <col min="5" max="5" width="61.7109375" customWidth="1"/>
-    <col min="6" max="6" width="62.7109375" customWidth="1"/>
-    <col min="7" max="7" width="176.7109375" customWidth="1"/>
-    <col min="8" max="8" width="171.7109375" customWidth="1"/>
-    <col min="9" max="9" width="134.7109375" customWidth="1"/>
-    <col min="10" max="10" width="62.7109375" customWidth="1"/>
-    <col min="11" max="11" width="58.7109375" customWidth="1"/>
-    <col min="12" max="12" width="141.7109375" customWidth="1"/>
-    <col min="13" max="13" width="69.7109375" customWidth="1"/>
-    <col min="14" max="14" width="58.7109375" customWidth="1"/>
-    <col min="15" max="15" width="141.7109375" customWidth="1"/>
-    <col min="16" max="16" width="96.7109375" customWidth="1"/>
-    <col min="17" max="17" width="58.7109375" customWidth="1"/>
-    <col min="18" max="18" width="141.7109375" customWidth="1"/>
-    <col min="19" max="19" width="81.7109375" customWidth="1"/>
-    <col min="20" max="20" width="58.7109375" customWidth="1"/>
-    <col min="21" max="21" width="141.7109375" customWidth="1"/>
-    <col min="22" max="22" width="57.7109375" customWidth="1"/>
-    <col min="23" max="23" width="76.7109375" customWidth="1"/>
-    <col min="24" max="24" width="80.7109375" customWidth="1"/>
-    <col min="25" max="25" width="62.7109375" customWidth="1"/>
-    <col min="26" max="26" width="121.7109375" customWidth="1"/>
-    <col min="27" max="27" width="97.7109375" customWidth="1"/>
-    <col min="28" max="28" width="86.7109375" customWidth="1"/>
-    <col min="29" max="29" width="99.7109375" customWidth="1"/>
-    <col min="30" max="30" width="101.7109375" customWidth="1"/>
-    <col min="31" max="31" width="69.7109375" customWidth="1"/>
-    <col min="32" max="32" width="69.7109375" customWidth="1"/>
-    <col min="33" max="33" width="71.7109375" customWidth="1"/>
-    <col min="34" max="34" width="141.7109375" customWidth="1"/>
-    <col min="35" max="35" width="158.7109375" customWidth="1"/>
-    <col min="36" max="36" width="136.7109375" customWidth="1"/>
-    <col min="37" max="37" width="90.7109375" customWidth="1"/>
-    <col min="38" max="38" width="57.7109375" customWidth="1"/>
-    <col min="39" max="39" width="55.7109375" customWidth="1"/>
-    <col min="40" max="40" width="53.7109375" customWidth="1"/>
-    <col min="41" max="41" width="111.7109375" customWidth="1"/>
-    <col min="42" max="42" width="91.7109375" customWidth="1"/>
-    <col min="43" max="43" width="72.7109375" customWidth="1"/>
-    <col min="44" max="44" width="71.7109375" customWidth="1"/>
-    <col min="45" max="45" width="32.7109375" customWidth="1"/>
-    <col min="46" max="46" width="67.7109375" customWidth="1"/>
-    <col min="47" max="47" width="41.7109375" customWidth="1"/>
-    <col min="48" max="48" width="84.7109375" customWidth="1"/>
-    <col min="49" max="49" width="104.7109375" customWidth="1"/>
-    <col min="50" max="50" width="104.7109375" customWidth="1"/>
-    <col min="51" max="51" width="104.7109375" customWidth="1"/>
-    <col min="52" max="52" width="88.7109375" customWidth="1"/>
-    <col min="53" max="53" width="69.7109375" customWidth="1"/>
-    <col min="54" max="54" width="58.7109375" customWidth="1"/>
-    <col min="55" max="55" width="141.7109375" customWidth="1"/>
-    <col min="56" max="56" width="67.7109375" customWidth="1"/>
-    <col min="57" max="57" width="58.7109375" customWidth="1"/>
-    <col min="58" max="58" width="141.7109375" customWidth="1"/>
-    <col min="59" max="59" width="79.7109375" customWidth="1"/>
-    <col min="60" max="60" width="175.7109375" customWidth="1"/>
+    <col min="1" max="1" width="80.6640625" customWidth="1"/>
+    <col min="2" max="2" width="71.6640625" customWidth="1"/>
+    <col min="3" max="3" width="78.6640625" customWidth="1"/>
+    <col min="4" max="4" width="54.6640625" customWidth="1"/>
+    <col min="5" max="5" width="61.6640625" customWidth="1"/>
+    <col min="6" max="6" width="62.6640625" customWidth="1"/>
+    <col min="7" max="7" width="176.6640625" customWidth="1"/>
+    <col min="8" max="8" width="171.6640625" customWidth="1"/>
+    <col min="9" max="9" width="134.6640625" customWidth="1"/>
+    <col min="10" max="10" width="62.6640625" customWidth="1"/>
+    <col min="11" max="11" width="58.6640625" customWidth="1"/>
+    <col min="12" max="12" width="141.6640625" customWidth="1"/>
+    <col min="13" max="13" width="69.6640625" customWidth="1"/>
+    <col min="14" max="14" width="58.6640625" customWidth="1"/>
+    <col min="15" max="15" width="141.6640625" customWidth="1"/>
+    <col min="16" max="16" width="96.6640625" customWidth="1"/>
+    <col min="17" max="17" width="58.6640625" customWidth="1"/>
+    <col min="18" max="18" width="141.6640625" customWidth="1"/>
+    <col min="19" max="19" width="81.6640625" customWidth="1"/>
+    <col min="20" max="20" width="58.6640625" customWidth="1"/>
+    <col min="21" max="21" width="141.6640625" customWidth="1"/>
+    <col min="22" max="22" width="57.6640625" customWidth="1"/>
+    <col min="23" max="23" width="76.6640625" customWidth="1"/>
+    <col min="24" max="24" width="80.6640625" customWidth="1"/>
+    <col min="25" max="25" width="62.6640625" customWidth="1"/>
+    <col min="26" max="26" width="121.6640625" customWidth="1"/>
+    <col min="27" max="27" width="97.6640625" customWidth="1"/>
+    <col min="28" max="28" width="86.6640625" customWidth="1"/>
+    <col min="29" max="29" width="99.6640625" customWidth="1"/>
+    <col min="30" max="30" width="101.6640625" customWidth="1"/>
+    <col min="31" max="32" width="69.6640625" customWidth="1"/>
+    <col min="33" max="33" width="71.6640625" customWidth="1"/>
+    <col min="34" max="34" width="141.6640625" customWidth="1"/>
+    <col min="35" max="35" width="158.6640625" customWidth="1"/>
+    <col min="36" max="36" width="136.6640625" customWidth="1"/>
+    <col min="37" max="37" width="90.6640625" customWidth="1"/>
+    <col min="38" max="38" width="57.6640625" customWidth="1"/>
+    <col min="39" max="39" width="55.6640625" customWidth="1"/>
+    <col min="40" max="40" width="53.6640625" customWidth="1"/>
+    <col min="41" max="41" width="111.6640625" customWidth="1"/>
+    <col min="42" max="42" width="91.6640625" customWidth="1"/>
+    <col min="43" max="43" width="72.6640625" customWidth="1"/>
+    <col min="44" max="44" width="71.6640625" customWidth="1"/>
+    <col min="45" max="45" width="32.6640625" customWidth="1"/>
+    <col min="46" max="46" width="67.6640625" customWidth="1"/>
+    <col min="47" max="47" width="41.6640625" customWidth="1"/>
+    <col min="48" max="48" width="84.6640625" customWidth="1"/>
+    <col min="49" max="51" width="104.6640625" customWidth="1"/>
+    <col min="52" max="52" width="88.6640625" customWidth="1"/>
+    <col min="53" max="53" width="69.6640625" customWidth="1"/>
+    <col min="54" max="54" width="58.6640625" customWidth="1"/>
+    <col min="55" max="55" width="141.6640625" customWidth="1"/>
+    <col min="56" max="56" width="67.6640625" customWidth="1"/>
+    <col min="57" max="57" width="58.6640625" customWidth="1"/>
+    <col min="58" max="58" width="141.6640625" customWidth="1"/>
+    <col min="59" max="59" width="79.6640625" customWidth="1"/>
+    <col min="60" max="60" width="175.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -15814,7 +15861,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:60">
+    <row r="2" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -15996,7 +16043,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:60">
+    <row r="3" spans="1:60" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>105</v>
       </c>
@@ -16157,7 +16204,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:60">
+    <row r="4" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>188</v>
       </c>
@@ -16339,12 +16386,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:60">
+    <row r="5" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:60">
+    <row r="6" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>213</v>
       </c>
@@ -16361,7 +16408,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="7" spans="1:60">
+    <row r="7" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>217</v>
       </c>
@@ -16378,7 +16425,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="8" spans="1:60">
+    <row r="8" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>221</v>
       </c>
@@ -16395,7 +16442,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="9" spans="1:60">
+    <row r="9" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>226</v>
       </c>
@@ -16412,7 +16459,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="10" spans="1:60">
+    <row r="10" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>230</v>
       </c>
@@ -16429,7 +16476,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="11" spans="1:60">
+    <row r="11" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>234</v>
       </c>
@@ -16446,7 +16493,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="12" spans="1:60">
+    <row r="12" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>239</v>
       </c>
@@ -16463,7 +16510,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="13" spans="1:60">
+    <row r="13" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>243</v>
       </c>
@@ -16480,7 +16527,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="14" spans="1:60">
+    <row r="14" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>247</v>
       </c>
@@ -16497,7 +16544,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="15" spans="1:60">
+    <row r="15" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>251</v>
       </c>
@@ -16514,7 +16561,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="16" spans="1:60">
+    <row r="16" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>255</v>
       </c>
@@ -16531,7 +16578,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="17" spans="1:43">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>259</v>
       </c>
@@ -16548,7 +16595,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="18" spans="1:43">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>264</v>
       </c>
@@ -16565,7 +16612,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="19" spans="1:43">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>268</v>
       </c>
@@ -16582,7 +16629,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="20" spans="1:43">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>274</v>
       </c>
@@ -16599,7 +16646,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="21" spans="1:43">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>279</v>
       </c>
@@ -16616,7 +16663,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="22" spans="1:43">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>284</v>
       </c>
@@ -16633,7 +16680,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="23" spans="1:43">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>289</v>
       </c>
@@ -16650,7 +16697,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="24" spans="1:43">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>294</v>
       </c>
@@ -16667,7 +16714,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="25" spans="1:43">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>299</v>
       </c>
@@ -16684,7 +16731,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="26" spans="1:43">
+    <row r="26" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>304</v>
       </c>
@@ -16701,7 +16748,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="27" spans="1:43">
+    <row r="27" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>309</v>
       </c>
@@ -16718,7 +16765,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="28" spans="1:43">
+    <row r="28" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>314</v>
       </c>
@@ -16735,7 +16782,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="29" spans="1:43">
+    <row r="29" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>319</v>
       </c>
@@ -16752,7 +16799,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="30" spans="1:43">
+    <row r="30" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>324</v>
       </c>
@@ -16769,7 +16816,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="31" spans="1:43">
+    <row r="31" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>329</v>
       </c>
@@ -16786,7 +16833,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="32" spans="1:43">
+    <row r="32" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>334</v>
       </c>
@@ -16803,7 +16850,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="33" spans="1:43">
+    <row r="33" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>339</v>
       </c>
@@ -16820,7 +16867,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="34" spans="1:43">
+    <row r="34" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>344</v>
       </c>
@@ -16837,7 +16884,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="35" spans="1:43">
+    <row r="35" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>349</v>
       </c>
@@ -16854,7 +16901,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="36" spans="1:43">
+    <row r="36" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>354</v>
       </c>
@@ -16871,7 +16918,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="37" spans="1:43">
+    <row r="37" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>359</v>
       </c>
@@ -16888,7 +16935,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="38" spans="1:43">
+    <row r="38" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>364</v>
       </c>
@@ -16905,7 +16952,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="39" spans="1:43">
+    <row r="39" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>369</v>
       </c>
@@ -16922,7 +16969,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="40" spans="1:43">
+    <row r="40" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>374</v>
       </c>
@@ -16939,7 +16986,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="41" spans="1:43">
+    <row r="41" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>379</v>
       </c>
@@ -16956,7 +17003,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="42" spans="1:43">
+    <row r="42" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>384</v>
       </c>
@@ -16973,7 +17020,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="43" spans="1:43">
+    <row r="43" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>389</v>
       </c>
@@ -16990,7 +17037,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="44" spans="1:43">
+    <row r="44" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>394</v>
       </c>
@@ -17007,7 +17054,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="45" spans="1:43">
+    <row r="45" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>399</v>
       </c>
@@ -17024,7 +17071,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="46" spans="1:43">
+    <row r="46" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>404</v>
       </c>
@@ -17041,7 +17088,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="47" spans="1:43">
+    <row r="47" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>409</v>
       </c>
@@ -17058,7 +17105,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="48" spans="1:43">
+    <row r="48" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>414</v>
       </c>
@@ -17075,7 +17122,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="49" spans="1:43">
+    <row r="49" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>419</v>
       </c>
@@ -17092,7 +17139,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="50" spans="1:43">
+    <row r="50" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>424</v>
       </c>
@@ -17109,7 +17156,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="51" spans="1:43">
+    <row r="51" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>429</v>
       </c>
@@ -17126,7 +17173,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="52" spans="1:43">
+    <row r="52" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>434</v>
       </c>
@@ -17143,7 +17190,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="53" spans="1:43">
+    <row r="53" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>439</v>
       </c>
@@ -17160,7 +17207,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="54" spans="1:43">
+    <row r="54" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>444</v>
       </c>
@@ -17177,7 +17224,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="55" spans="1:43">
+    <row r="55" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>449</v>
       </c>
@@ -17194,7 +17241,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="56" spans="1:43">
+    <row r="56" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>454</v>
       </c>
@@ -17211,7 +17258,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="57" spans="1:43">
+    <row r="57" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>459</v>
       </c>
@@ -17228,7 +17275,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="58" spans="1:43">
+    <row r="58" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>464</v>
       </c>
@@ -17245,7 +17292,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="59" spans="1:43">
+    <row r="59" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>469</v>
       </c>
@@ -17262,7 +17309,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="60" spans="1:43">
+    <row r="60" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>474</v>
       </c>
@@ -17279,7 +17326,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="61" spans="1:43">
+    <row r="61" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>479</v>
       </c>
@@ -17296,7 +17343,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="62" spans="1:43">
+    <row r="62" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>484</v>
       </c>
@@ -17313,7 +17360,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="63" spans="1:43">
+    <row r="63" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>489</v>
       </c>
@@ -17330,7 +17377,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="64" spans="1:43">
+    <row r="64" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>494</v>
       </c>
@@ -17347,7 +17394,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="65" spans="1:43">
+    <row r="65" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>499</v>
       </c>
@@ -17364,7 +17411,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="66" spans="1:43">
+    <row r="66" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>504</v>
       </c>
@@ -17381,7 +17428,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="67" spans="1:43">
+    <row r="67" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>509</v>
       </c>
@@ -17398,7 +17445,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="68" spans="1:43">
+    <row r="68" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>514</v>
       </c>
@@ -17415,7 +17462,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="69" spans="1:43">
+    <row r="69" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>519</v>
       </c>
@@ -17432,7 +17479,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="70" spans="1:43">
+    <row r="70" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>524</v>
       </c>
@@ -17449,7 +17496,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="71" spans="1:43">
+    <row r="71" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>529</v>
       </c>
@@ -17466,7 +17513,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="72" spans="1:43">
+    <row r="72" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>534</v>
       </c>
@@ -17483,7 +17530,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="73" spans="1:43">
+    <row r="73" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>539</v>
       </c>
@@ -17500,7 +17547,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="74" spans="1:43">
+    <row r="74" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>544</v>
       </c>
@@ -17517,7 +17564,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="75" spans="1:43">
+    <row r="75" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>549</v>
       </c>
@@ -17534,7 +17581,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="76" spans="1:43">
+    <row r="76" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>554</v>
       </c>
@@ -17551,7 +17598,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="77" spans="1:43">
+    <row r="77" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>559</v>
       </c>
@@ -17568,7 +17615,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="78" spans="1:43">
+    <row r="78" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>564</v>
       </c>
@@ -17585,7 +17632,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="79" spans="1:43">
+    <row r="79" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>569</v>
       </c>
@@ -17602,7 +17649,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="80" spans="1:43">
+    <row r="80" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>574</v>
       </c>
@@ -17619,7 +17666,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="81" spans="1:43">
+    <row r="81" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>579</v>
       </c>
@@ -17636,7 +17683,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="82" spans="1:43">
+    <row r="82" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>584</v>
       </c>
@@ -17653,7 +17700,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="83" spans="1:43">
+    <row r="83" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>589</v>
       </c>
@@ -17670,7 +17717,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="84" spans="1:43">
+    <row r="84" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>594</v>
       </c>
@@ -17687,7 +17734,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="85" spans="1:43">
+    <row r="85" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>599</v>
       </c>
@@ -17704,7 +17751,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="86" spans="1:43">
+    <row r="86" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>604</v>
       </c>
@@ -17721,7 +17768,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="87" spans="1:43">
+    <row r="87" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>609</v>
       </c>
@@ -17738,7 +17785,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="88" spans="1:43">
+    <row r="88" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>614</v>
       </c>
@@ -17755,7 +17802,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="89" spans="1:43">
+    <row r="89" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>619</v>
       </c>
@@ -17772,7 +17819,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="90" spans="1:43">
+    <row r="90" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>624</v>
       </c>
@@ -17789,7 +17836,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="91" spans="1:43">
+    <row r="91" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>629</v>
       </c>
@@ -17806,7 +17853,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="92" spans="1:43">
+    <row r="92" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>634</v>
       </c>
@@ -17823,7 +17870,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="93" spans="1:43">
+    <row r="93" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>639</v>
       </c>
@@ -17840,7 +17887,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="94" spans="1:43">
+    <row r="94" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>644</v>
       </c>
@@ -17857,7 +17904,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="95" spans="1:43">
+    <row r="95" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>649</v>
       </c>
@@ -17874,7 +17921,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="96" spans="1:43">
+    <row r="96" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>654</v>
       </c>
@@ -17891,7 +17938,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="97" spans="1:43">
+    <row r="97" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>659</v>
       </c>
@@ -17908,7 +17955,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="98" spans="1:43">
+    <row r="98" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>664</v>
       </c>
@@ -17925,7 +17972,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="99" spans="1:43">
+    <row r="99" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>669</v>
       </c>
@@ -17942,7 +17989,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="100" spans="1:43">
+    <row r="100" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>674</v>
       </c>
@@ -17959,7 +18006,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="101" spans="1:43">
+    <row r="101" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>679</v>
       </c>
@@ -17976,7 +18023,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="102" spans="1:43">
+    <row r="102" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>684</v>
       </c>
@@ -17993,7 +18040,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="103" spans="1:43">
+    <row r="103" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>689</v>
       </c>
@@ -18010,7 +18057,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="104" spans="1:43">
+    <row r="104" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>694</v>
       </c>
@@ -18027,7 +18074,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="105" spans="1:43">
+    <row r="105" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>699</v>
       </c>
@@ -18044,7 +18091,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="106" spans="1:43">
+    <row r="106" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>704</v>
       </c>
@@ -18061,7 +18108,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="107" spans="1:43">
+    <row r="107" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>709</v>
       </c>
@@ -18078,7 +18125,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="108" spans="1:43">
+    <row r="108" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>714</v>
       </c>
@@ -18095,7 +18142,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="109" spans="1:43">
+    <row r="109" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>719</v>
       </c>
@@ -18112,7 +18159,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="110" spans="1:43">
+    <row r="110" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>724</v>
       </c>
@@ -18129,7 +18176,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="111" spans="1:43">
+    <row r="111" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>729</v>
       </c>
@@ -18146,7 +18193,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="112" spans="1:43">
+    <row r="112" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>734</v>
       </c>
@@ -18163,7 +18210,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="113" spans="1:43">
+    <row r="113" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>739</v>
       </c>
@@ -18180,7 +18227,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="114" spans="1:43">
+    <row r="114" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>744</v>
       </c>
@@ -18197,7 +18244,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="115" spans="1:43">
+    <row r="115" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>749</v>
       </c>
@@ -18214,7 +18261,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="116" spans="1:43">
+    <row r="116" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>754</v>
       </c>
@@ -18231,7 +18278,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="117" spans="1:43">
+    <row r="117" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>759</v>
       </c>
@@ -18248,7 +18295,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="118" spans="1:43">
+    <row r="118" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>764</v>
       </c>
@@ -18265,7 +18312,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="119" spans="1:43">
+    <row r="119" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>769</v>
       </c>
@@ -18282,7 +18329,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="120" spans="1:43">
+    <row r="120" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>774</v>
       </c>
@@ -18299,7 +18346,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="121" spans="1:43">
+    <row r="121" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>779</v>
       </c>
@@ -18316,7 +18363,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="122" spans="1:43">
+    <row r="122" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>784</v>
       </c>
@@ -18333,7 +18380,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="123" spans="1:43">
+    <row r="123" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>789</v>
       </c>
@@ -18350,7 +18397,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="124" spans="1:43">
+    <row r="124" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>794</v>
       </c>
@@ -18367,7 +18414,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="125" spans="1:43">
+    <row r="125" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>799</v>
       </c>
@@ -18384,7 +18431,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="126" spans="1:43">
+    <row r="126" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>804</v>
       </c>
@@ -18401,7 +18448,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="127" spans="1:43">
+    <row r="127" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>809</v>
       </c>
@@ -18418,7 +18465,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="128" spans="1:43">
+    <row r="128" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>814</v>
       </c>
@@ -18435,7 +18482,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="129" spans="1:43">
+    <row r="129" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>819</v>
       </c>
